--- a/examples/source2/5.면접 수험표 만들기/수험번호.xlsx
+++ b/examples/source2/5.면접 수험표 만들기/수험번호.xlsx
@@ -22,34 +22,34 @@
     <t>수험번호</t>
   </si>
   <si>
-    <t>박정남</t>
-  </si>
-  <si>
-    <t>이은영</t>
-  </si>
-  <si>
-    <t>김수빈</t>
-  </si>
-  <si>
-    <t>장상훈</t>
-  </si>
-  <si>
-    <t>박우진</t>
-  </si>
-  <si>
-    <t>손유진</t>
-  </si>
-  <si>
-    <t>고정훈</t>
-  </si>
-  <si>
-    <t>백순옥</t>
-  </si>
-  <si>
-    <t>김지영</t>
-  </si>
-  <si>
-    <t>강준호</t>
+    <t>이정희</t>
+  </si>
+  <si>
+    <t>문수빈</t>
+  </si>
+  <si>
+    <t>박준혁</t>
+  </si>
+  <si>
+    <t>송지우</t>
+  </si>
+  <si>
+    <t>김정순</t>
+  </si>
+  <si>
+    <t>김예지</t>
+  </si>
+  <si>
+    <t>박예진</t>
+  </si>
+  <si>
+    <t>김순자</t>
+  </si>
+  <si>
+    <t>정예은</t>
+  </si>
+  <si>
+    <t>허현우</t>
   </si>
   <si>
     <t>2022-001</t>
